--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Vasp-Cxcr2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Vasp-Cxcr2.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>30.63125466666667</v>
+        <v>30.29931333333333</v>
       </c>
       <c r="H2">
-        <v>91.893764</v>
+        <v>90.89794000000001</v>
       </c>
       <c r="I2">
-        <v>0.3290859716264092</v>
+        <v>0.2999359759116586</v>
       </c>
       <c r="J2">
-        <v>0.3290859716264093</v>
+        <v>0.2999359759116585</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -555,28 +555,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.01295133333333333</v>
+        <v>0.01989833333333333</v>
       </c>
       <c r="N2">
-        <v>0.038854</v>
+        <v>0.059695</v>
       </c>
       <c r="O2">
-        <v>0.3831302015540567</v>
+        <v>0.5455534129646046</v>
       </c>
       <c r="P2">
-        <v>0.3831302015540567</v>
+        <v>0.5455534129646046</v>
       </c>
       <c r="Q2">
-        <v>0.3967155896062222</v>
+        <v>0.6029058364777778</v>
       </c>
       <c r="R2">
-        <v>3.570440306456</v>
+        <v>5.4261525283</v>
       </c>
       <c r="S2">
-        <v>0.1260827746378388</v>
+        <v>0.1636310953294748</v>
       </c>
       <c r="T2">
-        <v>0.1260827746378388</v>
+        <v>0.1636310953294748</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>30.63125466666667</v>
+        <v>30.29931333333333</v>
       </c>
       <c r="H3">
-        <v>91.893764</v>
+        <v>90.89794000000001</v>
       </c>
       <c r="I3">
-        <v>0.3290859716264092</v>
+        <v>0.2999359759116586</v>
       </c>
       <c r="J3">
-        <v>0.3290859716264093</v>
+        <v>0.2999359759116585</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -623,22 +623,22 @@
         <v>0.021853</v>
       </c>
       <c r="O3">
-        <v>0.2154873190549442</v>
+        <v>0.1997148627777118</v>
       </c>
       <c r="P3">
-        <v>0.2154873190549442</v>
+        <v>0.1997148627777118</v>
       </c>
       <c r="Q3">
-        <v>0.2231282694102222</v>
+        <v>0.2207102980911111</v>
       </c>
       <c r="R3">
-        <v>2.008154424692</v>
+        <v>1.98639268282</v>
       </c>
       <c r="S3">
-        <v>0.07091385376436636</v>
+        <v>0.05990167227129596</v>
       </c>
       <c r="T3">
-        <v>0.07091385376436637</v>
+        <v>0.05990167227129596</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>30.63125466666667</v>
+        <v>30.29931333333333</v>
       </c>
       <c r="H4">
-        <v>91.893764</v>
+        <v>90.89794000000001</v>
       </c>
       <c r="I4">
-        <v>0.3290859716264092</v>
+        <v>0.2999359759116586</v>
       </c>
       <c r="J4">
-        <v>0.3290859716264093</v>
+        <v>0.2999359759116585</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -679,28 +679,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.01356833333333333</v>
+        <v>0.009290999999999999</v>
       </c>
       <c r="N4">
-        <v>0.040705</v>
+        <v>0.027873</v>
       </c>
       <c r="O4">
-        <v>0.4013824793909991</v>
+        <v>0.2547317242576836</v>
       </c>
       <c r="P4">
-        <v>0.4013824793909991</v>
+        <v>0.2547317242576836</v>
       </c>
       <c r="Q4">
-        <v>0.4156150737355556</v>
+        <v>0.28151092018</v>
       </c>
       <c r="R4">
-        <v>3.74053566362</v>
+        <v>2.53359828162</v>
       </c>
       <c r="S4">
-        <v>0.1320893432242041</v>
+        <v>0.07640320831088784</v>
       </c>
       <c r="T4">
-        <v>0.1320893432242041</v>
+        <v>0.07640320831088784</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,10 +729,10 @@
         <v>48.384952</v>
       </c>
       <c r="I5">
-        <v>0.1732740966080916</v>
+        <v>0.1596558491596042</v>
       </c>
       <c r="J5">
-        <v>0.1732740966080916</v>
+        <v>0.1596558491596042</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -741,28 +741,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.01295133333333333</v>
+        <v>0.01989833333333333</v>
       </c>
       <c r="N5">
-        <v>0.038854</v>
+        <v>0.059695</v>
       </c>
       <c r="O5">
-        <v>0.3831302015540567</v>
+        <v>0.5455534129646046</v>
       </c>
       <c r="P5">
-        <v>0.3831302015540567</v>
+        <v>0.5455534129646046</v>
       </c>
       <c r="Q5">
-        <v>0.2088832138897778</v>
+        <v>0.3209266344044444</v>
       </c>
       <c r="R5">
-        <v>1.879948925008</v>
+        <v>2.88833970964</v>
       </c>
       <c r="S5">
-        <v>0.06638653955755525</v>
+        <v>0.08710079340878418</v>
       </c>
       <c r="T5">
-        <v>0.06638653955755525</v>
+        <v>0.08710079340878417</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>48.384952</v>
       </c>
       <c r="I6">
-        <v>0.1732740966080916</v>
+        <v>0.1596558491596042</v>
       </c>
       <c r="J6">
-        <v>0.1732740966080916</v>
+        <v>0.1596558491596042</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -809,10 +809,10 @@
         <v>0.021853</v>
       </c>
       <c r="O6">
-        <v>0.2154873190549442</v>
+        <v>0.1997148627777118</v>
       </c>
       <c r="P6">
-        <v>0.2154873190549442</v>
+        <v>0.1997148627777118</v>
       </c>
       <c r="Q6">
         <v>0.1174840395617778</v>
@@ -821,10 +821,10 @@
         <v>1.057356356056</v>
       </c>
       <c r="S6">
-        <v>0.03733837053974506</v>
+        <v>0.03188564600656941</v>
       </c>
       <c r="T6">
-        <v>0.03733837053974507</v>
+        <v>0.03188564600656941</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>48.384952</v>
       </c>
       <c r="I7">
-        <v>0.1732740966080916</v>
+        <v>0.1596558491596042</v>
       </c>
       <c r="J7">
-        <v>0.1732740966080916</v>
+        <v>0.1596558491596042</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -865,28 +865,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.01356833333333333</v>
+        <v>0.009290999999999999</v>
       </c>
       <c r="N7">
-        <v>0.040705</v>
+        <v>0.027873</v>
       </c>
       <c r="O7">
-        <v>0.4013824793909991</v>
+        <v>0.2547317242576836</v>
       </c>
       <c r="P7">
-        <v>0.4013824793909991</v>
+        <v>0.2547317242576836</v>
       </c>
       <c r="Q7">
-        <v>0.2188343856844444</v>
+        <v>0.149848196344</v>
       </c>
       <c r="R7">
-        <v>1.96950947116</v>
+        <v>1.348633767096</v>
       </c>
       <c r="S7">
-        <v>0.06954918651079132</v>
+        <v>0.04066940974425063</v>
       </c>
       <c r="T7">
-        <v>0.06954918651079132</v>
+        <v>0.04066940974425063</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>21.18754233333333</v>
+        <v>25.10878733333334</v>
       </c>
       <c r="H8">
-        <v>63.562627</v>
+        <v>75.326362</v>
       </c>
       <c r="I8">
-        <v>0.2276277296185412</v>
+        <v>0.2485544325684925</v>
       </c>
       <c r="J8">
-        <v>0.2276277296185412</v>
+        <v>0.2485544325684925</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -927,28 +927,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.01295133333333333</v>
+        <v>0.01989833333333333</v>
       </c>
       <c r="N8">
-        <v>0.038854</v>
+        <v>0.059695</v>
       </c>
       <c r="O8">
-        <v>0.3831302015540567</v>
+        <v>0.5455534129646046</v>
       </c>
       <c r="P8">
-        <v>0.3831302015540567</v>
+        <v>0.5455534129646046</v>
       </c>
       <c r="Q8">
-        <v>0.2744069232731111</v>
+        <v>0.4996230199544445</v>
       </c>
       <c r="R8">
-        <v>2.469662309458</v>
+        <v>4.49660717959</v>
       </c>
       <c r="S8">
-        <v>0.08721105792804403</v>
+        <v>0.1355997189952217</v>
       </c>
       <c r="T8">
-        <v>0.08721105792804401</v>
+        <v>0.1355997189952217</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>21.18754233333333</v>
+        <v>25.10878733333334</v>
       </c>
       <c r="H9">
-        <v>63.562627</v>
+        <v>75.326362</v>
       </c>
       <c r="I9">
-        <v>0.2276277296185412</v>
+        <v>0.2485544325684925</v>
       </c>
       <c r="J9">
-        <v>0.2276277296185412</v>
+        <v>0.2485544325684925</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -995,22 +995,22 @@
         <v>0.021853</v>
       </c>
       <c r="O9">
-        <v>0.2154873190549442</v>
+        <v>0.1997148627777118</v>
       </c>
       <c r="P9">
-        <v>0.2154873190549442</v>
+        <v>0.1997148627777118</v>
       </c>
       <c r="Q9">
-        <v>0.1543371208701111</v>
+        <v>0.1829007765317778</v>
       </c>
       <c r="R9">
-        <v>1.389034087831</v>
+        <v>1.646106988786</v>
       </c>
       <c r="S9">
-        <v>0.04905088919806316</v>
+        <v>0.0496400143932085</v>
       </c>
       <c r="T9">
-        <v>0.04905088919806316</v>
+        <v>0.0496400143932085</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>21.18754233333333</v>
+        <v>25.10878733333334</v>
       </c>
       <c r="H10">
-        <v>63.562627</v>
+        <v>75.326362</v>
       </c>
       <c r="I10">
-        <v>0.2276277296185412</v>
+        <v>0.2485544325684925</v>
       </c>
       <c r="J10">
-        <v>0.2276277296185412</v>
+        <v>0.2485544325684925</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -1051,28 +1051,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.01356833333333333</v>
+        <v>0.009290999999999999</v>
       </c>
       <c r="N10">
-        <v>0.040705</v>
+        <v>0.027873</v>
       </c>
       <c r="O10">
-        <v>0.4013824793909991</v>
+        <v>0.2547317242576836</v>
       </c>
       <c r="P10">
-        <v>0.4013824793909991</v>
+        <v>0.2547317242576836</v>
       </c>
       <c r="Q10">
-        <v>0.2874796368927778</v>
+        <v>0.233285743114</v>
       </c>
       <c r="R10">
-        <v>2.587316732035</v>
+        <v>2.099571688026</v>
       </c>
       <c r="S10">
-        <v>0.09136578249243402</v>
+        <v>0.06331469918006224</v>
       </c>
       <c r="T10">
-        <v>0.09136578249243403</v>
+        <v>0.06331469918006224</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>25.13268033333334</v>
+        <v>29.482852</v>
       </c>
       <c r="H11">
-        <v>75.39804100000001</v>
+        <v>88.448556</v>
       </c>
       <c r="I11">
-        <v>0.2700122021469579</v>
+        <v>0.2918537423602448</v>
       </c>
       <c r="J11">
-        <v>0.2700122021469579</v>
+        <v>0.2918537423602447</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1113,28 +1113,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.01295133333333333</v>
+        <v>0.01989833333333333</v>
       </c>
       <c r="N11">
-        <v>0.038854</v>
+        <v>0.059695</v>
       </c>
       <c r="O11">
-        <v>0.3831302015540567</v>
+        <v>0.5455534129646046</v>
       </c>
       <c r="P11">
-        <v>0.3831302015540567</v>
+        <v>0.5455534129646046</v>
       </c>
       <c r="Q11">
-        <v>0.3255017205571112</v>
+        <v>0.5866596167133333</v>
       </c>
       <c r="R11">
-        <v>2.929515485014</v>
+        <v>5.27993655042</v>
       </c>
       <c r="S11">
-        <v>0.1034498294306187</v>
+        <v>0.1592218052311239</v>
       </c>
       <c r="T11">
-        <v>0.1034498294306187</v>
+        <v>0.1592218052311239</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>25.13268033333334</v>
+        <v>29.482852</v>
       </c>
       <c r="H12">
-        <v>75.39804100000001</v>
+        <v>88.448556</v>
       </c>
       <c r="I12">
-        <v>0.2700122021469579</v>
+        <v>0.2918537423602448</v>
       </c>
       <c r="J12">
-        <v>0.2700122021469579</v>
+        <v>0.2918537423602447</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -1181,22 +1181,22 @@
         <v>0.021853</v>
       </c>
       <c r="O12">
-        <v>0.2154873190549442</v>
+        <v>0.1997148627777118</v>
       </c>
       <c r="P12">
-        <v>0.2154873190549442</v>
+        <v>0.1997148627777118</v>
       </c>
       <c r="Q12">
-        <v>0.1830748211081111</v>
+        <v>0.2147629215853333</v>
       </c>
       <c r="R12">
-        <v>1.647673389973</v>
+        <v>1.932866294268</v>
       </c>
       <c r="S12">
-        <v>0.05818420555276961</v>
+        <v>0.05828753010663792</v>
       </c>
       <c r="T12">
-        <v>0.05818420555276961</v>
+        <v>0.05828753010663792</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>25.13268033333334</v>
+        <v>29.482852</v>
       </c>
       <c r="H13">
-        <v>75.39804100000001</v>
+        <v>88.448556</v>
       </c>
       <c r="I13">
-        <v>0.2700122021469579</v>
+        <v>0.2918537423602448</v>
       </c>
       <c r="J13">
-        <v>0.2700122021469579</v>
+        <v>0.2918537423602447</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -1237,28 +1237,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.01356833333333333</v>
+        <v>0.009290999999999999</v>
       </c>
       <c r="N13">
-        <v>0.040705</v>
+        <v>0.027873</v>
       </c>
       <c r="O13">
-        <v>0.4013824793909991</v>
+        <v>0.2547317242576836</v>
       </c>
       <c r="P13">
-        <v>0.4013824793909991</v>
+        <v>0.2547317242576836</v>
       </c>
       <c r="Q13">
-        <v>0.3410085843227778</v>
+        <v>0.2739251779319999</v>
       </c>
       <c r="R13">
-        <v>3.069077258905</v>
+        <v>2.465326601388</v>
       </c>
       <c r="S13">
-        <v>0.1083781671635696</v>
+        <v>0.07434440702248289</v>
       </c>
       <c r="T13">
-        <v>0.1083781671635696</v>
+        <v>0.07434440702248289</v>
       </c>
     </row>
   </sheetData>
